--- a/Data Dummy/T12 DataFace 1 - 200.xlsx
+++ b/Data Dummy/T12 DataFace 1 - 200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/87c52a275ae1046c/Work/Ongoing/e-notice/Convert App ^0 Template Form/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\e-notice-Converter\Data Dummy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="621" documentId="11_9D00EE912985747DCC1D5D2E9FB6C9F9AD1D9212" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C606611B-EF1F-4FD9-814E-0F745625935C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B92DDC-EE7E-4D92-B3CE-5B139A054218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEAD" sheetId="1" r:id="rId1"/>
@@ -1960,7 +1960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1989,9 +1989,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1999,80 +1996,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2374,18 +2298,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2396,16 +2320,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f ca="1">TODAY()</f>
-        <v>45775</v>
+        <v>45923</v>
       </c>
     </row>
   </sheetData>
@@ -2417,35 +2341,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +2434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -2640,7 +2564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -2705,7 +2629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2770,7 +2694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,7 +2759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2900,7 +2824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2965,7 +2889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -3030,7 +2954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,7 +3019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3160,7 +3084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -3225,7 +3149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -3290,7 +3214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,7 +3279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -3420,7 +3344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3485,7 +3409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -3550,7 +3474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -3615,7 +3539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -3680,7 +3604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3745,7 +3669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -3810,7 +3734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -3875,7 +3799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3940,7 +3864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -4005,7 +3929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -4070,7 +3994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -4135,7 +4059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -4200,7 +4124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -4265,7 +4189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -4330,7 +4254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -4395,7 +4319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -4460,7 +4384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -4525,7 +4449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -4590,7 +4514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -4655,7 +4579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -4720,7 +4644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -4785,7 +4709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -4850,7 +4774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
@@ -4915,7 +4839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -4980,7 +4904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -5045,7 +4969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -5110,7 +5034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -5175,7 +5099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -5240,7 +5164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
@@ -5305,7 +5229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>33</v>
       </c>
@@ -5370,7 +5294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
@@ -5435,7 +5359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -5500,7 +5424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>33</v>
       </c>
@@ -5565,7 +5489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
@@ -5630,7 +5554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -5695,7 +5619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -5760,7 +5684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
@@ -5825,7 +5749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>33</v>
       </c>
@@ -5890,7 +5814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -5955,7 +5879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
@@ -6020,7 +5944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>33</v>
       </c>
@@ -6085,7 +6009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -6150,7 +6074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>33</v>
       </c>
@@ -6215,7 +6139,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>33</v>
       </c>
@@ -6280,7 +6204,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>33</v>
       </c>
@@ -6345,7 +6269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>33</v>
       </c>
@@ -6410,7 +6334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>33</v>
       </c>
@@ -6475,7 +6399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>33</v>
       </c>
@@ -6540,7 +6464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>33</v>
       </c>
@@ -6605,7 +6529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>33</v>
       </c>
@@ -6670,7 +6594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>33</v>
       </c>
@@ -6735,7 +6659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>33</v>
       </c>
@@ -6800,7 +6724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
@@ -6865,7 +6789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>33</v>
       </c>
@@ -6930,7 +6854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>33</v>
       </c>
@@ -6995,7 +6919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
@@ -7060,7 +6984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
@@ -7125,7 +7049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>33</v>
       </c>
@@ -7190,7 +7114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>33</v>
       </c>
@@ -7255,7 +7179,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
@@ -7320,7 +7244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
@@ -7385,7 +7309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
@@ -7450,7 +7374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
@@ -7515,7 +7439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
@@ -7580,7 +7504,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>33</v>
       </c>
@@ -7645,7 +7569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>33</v>
       </c>
@@ -7710,7 +7634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
@@ -7775,7 +7699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>33</v>
       </c>
@@ -7840,7 +7764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
@@ -7905,7 +7829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>33</v>
       </c>
@@ -7970,7 +7894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>33</v>
       </c>
@@ -8035,7 +7959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>33</v>
       </c>
@@ -8100,7 +8024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>33</v>
       </c>
@@ -8165,7 +8089,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>33</v>
       </c>
@@ -8230,7 +8154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>33</v>
       </c>
@@ -8295,7 +8219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
@@ -8360,7 +8284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>33</v>
       </c>
@@ -8425,7 +8349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>33</v>
       </c>
@@ -8490,7 +8414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
@@ -8555,7 +8479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
@@ -8620,7 +8544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
@@ -8685,7 +8609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>33</v>
       </c>
@@ -8750,7 +8674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
@@ -8815,7 +8739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
@@ -8880,7 +8804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
@@ -8945,7 +8869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>33</v>
       </c>
@@ -9010,7 +8934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>33</v>
       </c>
@@ -9075,7 +8999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>33</v>
       </c>
@@ -9140,7 +9064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>33</v>
       </c>
@@ -9205,7 +9129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>33</v>
       </c>
@@ -9270,7 +9194,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>33</v>
       </c>
@@ -9335,7 +9259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>33</v>
       </c>
@@ -9400,7 +9324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>33</v>
       </c>
@@ -9465,7 +9389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>33</v>
       </c>
@@ -9530,7 +9454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>33</v>
       </c>
@@ -9595,7 +9519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>33</v>
       </c>
@@ -9660,7 +9584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>33</v>
       </c>
@@ -9725,7 +9649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>33</v>
       </c>
@@ -9790,7 +9714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>33</v>
       </c>
@@ -9855,7 +9779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -9920,7 +9844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>33</v>
       </c>
@@ -9985,7 +9909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
@@ -10050,7 +9974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>33</v>
       </c>
@@ -10115,7 +10039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>33</v>
       </c>
@@ -10180,7 +10104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>33</v>
       </c>
@@ -10245,7 +10169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>33</v>
       </c>
@@ -10310,7 +10234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>33</v>
       </c>
@@ -10375,7 +10299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>33</v>
       </c>
@@ -10440,7 +10364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>33</v>
       </c>
@@ -10505,7 +10429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>33</v>
       </c>
@@ -10570,7 +10494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>33</v>
       </c>
@@ -10635,7 +10559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>33</v>
       </c>
@@ -10700,7 +10624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>33</v>
       </c>
@@ -10765,7 +10689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
@@ -10830,7 +10754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
@@ -10895,7 +10819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -10960,7 +10884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>33</v>
       </c>
@@ -11025,7 +10949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
@@ -11090,7 +11014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>33</v>
       </c>
@@ -11155,7 +11079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>33</v>
       </c>
@@ -11220,7 +11144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>33</v>
       </c>
@@ -11285,7 +11209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>33</v>
       </c>
@@ -11350,7 +11274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>33</v>
       </c>
@@ -11415,7 +11339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>33</v>
       </c>
@@ -11480,7 +11404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>33</v>
       </c>
@@ -11545,7 +11469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>33</v>
       </c>
@@ -11610,7 +11534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>33</v>
       </c>
@@ -11675,7 +11599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>33</v>
       </c>
@@ -11740,7 +11664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>33</v>
       </c>
@@ -11805,7 +11729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>33</v>
       </c>
@@ -11870,7 +11794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>33</v>
       </c>
@@ -11935,7 +11859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>33</v>
       </c>
@@ -12000,7 +11924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>33</v>
       </c>
@@ -12065,7 +11989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>33</v>
       </c>
@@ -12130,7 +12054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>33</v>
       </c>
@@ -12195,7 +12119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>33</v>
       </c>
@@ -12260,7 +12184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>33</v>
       </c>
@@ -12325,7 +12249,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>33</v>
       </c>
@@ -12390,7 +12314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>33</v>
       </c>
@@ -12455,7 +12379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>33</v>
       </c>
@@ -12520,7 +12444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>33</v>
       </c>
@@ -12585,7 +12509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>33</v>
       </c>
@@ -12650,7 +12574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>33</v>
       </c>
@@ -12715,7 +12639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>33</v>
       </c>
@@ -12780,7 +12704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>33</v>
       </c>
@@ -12845,7 +12769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>33</v>
       </c>
@@ -12910,7 +12834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>33</v>
       </c>
@@ -12975,7 +12899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>33</v>
       </c>
@@ -13040,7 +12964,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>33</v>
       </c>
@@ -13105,7 +13029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>33</v>
       </c>
@@ -13170,7 +13094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>33</v>
       </c>
@@ -13235,7 +13159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>33</v>
       </c>
@@ -13300,7 +13224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>33</v>
       </c>
@@ -13365,7 +13289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>33</v>
       </c>
@@ -13430,7 +13354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>33</v>
       </c>
@@ -13495,7 +13419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>33</v>
       </c>
@@ -13560,7 +13484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>33</v>
       </c>
@@ -13625,7 +13549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>33</v>
       </c>
@@ -13690,7 +13614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>33</v>
       </c>
@@ -13755,7 +13679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>33</v>
       </c>
@@ -13820,7 +13744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>33</v>
       </c>
@@ -13885,7 +13809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>33</v>
       </c>
@@ -13950,7 +13874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>33</v>
       </c>
@@ -14015,7 +13939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>33</v>
       </c>
@@ -14080,7 +14004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>33</v>
       </c>
@@ -14145,7 +14069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>33</v>
       </c>
@@ -14210,7 +14134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>33</v>
       </c>
@@ -14275,7 +14199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>33</v>
       </c>
@@ -14340,7 +14264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>33</v>
       </c>
@@ -14405,7 +14329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>33</v>
       </c>
@@ -14470,7 +14394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>33</v>
       </c>
@@ -14535,7 +14459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>33</v>
       </c>
@@ -14600,7 +14524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>33</v>
       </c>
@@ -14665,7 +14589,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>33</v>
       </c>
@@ -14730,7 +14654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>33</v>
       </c>
@@ -14795,7 +14719,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>33</v>
       </c>
@@ -14860,7 +14784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>33</v>
       </c>
@@ -14925,7 +14849,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>33</v>
       </c>
@@ -14990,7 +14914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>33</v>
       </c>
@@ -15055,7 +14979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>33</v>
       </c>
@@ -15120,7 +15044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>33</v>
       </c>
@@ -15185,7 +15109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>33</v>
       </c>
@@ -15250,7 +15174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>33</v>
       </c>
@@ -15315,7 +15239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>33</v>
       </c>
@@ -15380,7 +15304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>33</v>
       </c>
@@ -15445,7 +15369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>33</v>
       </c>
@@ -15526,18 +15450,18 @@
       <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="4"/>
+    <col min="5" max="5" width="11.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -15560,7 +15484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>325</v>
       </c>
@@ -15583,7 +15507,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>326</v>
       </c>
@@ -15606,7 +15530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>327</v>
       </c>
@@ -15629,7 +15553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>328</v>
       </c>
@@ -15652,7 +15576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>329</v>
       </c>
@@ -15675,7 +15599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>330</v>
       </c>
@@ -15698,7 +15622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>331</v>
       </c>
@@ -15721,7 +15645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>332</v>
       </c>
@@ -15744,7 +15668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>333</v>
       </c>
@@ -15767,7 +15691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>334</v>
       </c>
@@ -15790,7 +15714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>335</v>
       </c>
@@ -15813,7 +15737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>336</v>
       </c>
@@ -15836,7 +15760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>337</v>
       </c>
@@ -15859,7 +15783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>338</v>
       </c>
@@ -15882,7 +15806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>339</v>
       </c>
@@ -15905,7 +15829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>340</v>
       </c>
@@ -15928,7 +15852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>341</v>
       </c>
@@ -15951,7 +15875,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>342</v>
       </c>
@@ -15974,7 +15898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>343</v>
       </c>
@@ -15997,7 +15921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>344</v>
       </c>
@@ -16020,7 +15944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>345</v>
       </c>
@@ -16043,7 +15967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>346</v>
       </c>
@@ -16066,7 +15990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>347</v>
       </c>
@@ -16089,7 +16013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>348</v>
       </c>
@@ -16112,7 +16036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>349</v>
       </c>
@@ -16135,7 +16059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>350</v>
       </c>
@@ -16158,7 +16082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>351</v>
       </c>
@@ -16181,7 +16105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>352</v>
       </c>
@@ -16204,7 +16128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>353</v>
       </c>
@@ -16227,7 +16151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>354</v>
       </c>
@@ -16250,7 +16174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>355</v>
       </c>
@@ -16273,7 +16197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>356</v>
       </c>
@@ -16296,7 +16220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>357</v>
       </c>
@@ -16319,7 +16243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>358</v>
       </c>
@@ -16342,7 +16266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>359</v>
       </c>
@@ -16365,7 +16289,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>360</v>
       </c>
@@ -16388,7 +16312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>361</v>
       </c>
@@ -16411,7 +16335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>362</v>
       </c>
@@ -16434,7 +16358,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>363</v>
       </c>
@@ -16457,7 +16381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>364</v>
       </c>
@@ -16480,7 +16404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>365</v>
       </c>
@@ -16503,7 +16427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>366</v>
       </c>
@@ -16526,7 +16450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>367</v>
       </c>
@@ -16549,7 +16473,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>368</v>
       </c>
@@ -16572,7 +16496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>369</v>
       </c>
@@ -16595,7 +16519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>370</v>
       </c>
@@ -16618,7 +16542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>371</v>
       </c>
@@ -16641,7 +16565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>372</v>
       </c>
@@ -16664,7 +16588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>373</v>
       </c>
@@ -16687,7 +16611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>374</v>
       </c>
@@ -16710,7 +16634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>375</v>
       </c>
@@ -16733,7 +16657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>376</v>
       </c>
@@ -16756,7 +16680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>377</v>
       </c>
@@ -16779,7 +16703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>378</v>
       </c>
@@ -16802,7 +16726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>379</v>
       </c>
@@ -16825,7 +16749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>380</v>
       </c>
@@ -16848,7 +16772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>381</v>
       </c>
@@ -16871,7 +16795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>382</v>
       </c>
@@ -16894,7 +16818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>383</v>
       </c>
@@ -16917,7 +16841,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>384</v>
       </c>
@@ -16940,7 +16864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>385</v>
       </c>
@@ -16963,7 +16887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>386</v>
       </c>
@@ -16986,7 +16910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>387</v>
       </c>
@@ -17009,7 +16933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>388</v>
       </c>
@@ -17032,7 +16956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>389</v>
       </c>
@@ -17055,7 +16979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>390</v>
       </c>
@@ -17078,7 +17002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>391</v>
       </c>
@@ -17101,7 +17025,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>392</v>
       </c>
@@ -17124,7 +17048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>393</v>
       </c>
@@ -17147,7 +17071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>394</v>
       </c>
@@ -17170,7 +17094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>395</v>
       </c>
@@ -17193,7 +17117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>396</v>
       </c>
@@ -17216,7 +17140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>397</v>
       </c>
@@ -17239,7 +17163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>398</v>
       </c>
@@ -17262,7 +17186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>399</v>
       </c>
@@ -17285,7 +17209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>400</v>
       </c>
@@ -17308,7 +17232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>401</v>
       </c>
@@ -17331,7 +17255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>402</v>
       </c>
@@ -17354,7 +17278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>403</v>
       </c>
@@ -17377,7 +17301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>404</v>
       </c>
@@ -17400,7 +17324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>405</v>
       </c>
@@ -17423,7 +17347,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>406</v>
       </c>
@@ -17446,7 +17370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>407</v>
       </c>
@@ -17469,7 +17393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>408</v>
       </c>
@@ -17492,7 +17416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>409</v>
       </c>
@@ -17515,7 +17439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>410</v>
       </c>
@@ -17538,7 +17462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>411</v>
       </c>
@@ -17561,7 +17485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>412</v>
       </c>
@@ -17584,7 +17508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>413</v>
       </c>
@@ -17607,7 +17531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>414</v>
       </c>
@@ -17630,7 +17554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>415</v>
       </c>
@@ -17653,7 +17577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>416</v>
       </c>
@@ -17676,7 +17600,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>417</v>
       </c>
@@ -17699,7 +17623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>418</v>
       </c>
@@ -17722,7 +17646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>419</v>
       </c>
@@ -17745,7 +17669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>420</v>
       </c>
@@ -17768,7 +17692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>421</v>
       </c>
@@ -17791,7 +17715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>422</v>
       </c>
@@ -17814,7 +17738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>423</v>
       </c>
@@ -17837,7 +17761,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>424</v>
       </c>
@@ -17860,7 +17784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>425</v>
       </c>
@@ -17883,7 +17807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>426</v>
       </c>
@@ -17906,7 +17830,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>427</v>
       </c>
@@ -17929,7 +17853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>428</v>
       </c>
@@ -17952,7 +17876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>429</v>
       </c>
@@ -17975,7 +17899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>430</v>
       </c>
@@ -17998,7 +17922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>431</v>
       </c>
@@ -18021,7 +17945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>432</v>
       </c>
@@ -18044,7 +17968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>433</v>
       </c>
@@ -18067,7 +17991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>434</v>
       </c>
@@ -18090,7 +18014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>435</v>
       </c>
@@ -18113,7 +18037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>436</v>
       </c>
@@ -18136,7 +18060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>437</v>
       </c>
@@ -18159,7 +18083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>438</v>
       </c>
@@ -18182,7 +18106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>439</v>
       </c>
@@ -18205,7 +18129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>440</v>
       </c>
@@ -18228,7 +18152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>441</v>
       </c>
@@ -18251,7 +18175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>442</v>
       </c>
@@ -18274,7 +18198,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>443</v>
       </c>
@@ -18297,7 +18221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>444</v>
       </c>
@@ -18320,7 +18244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>445</v>
       </c>
@@ -18343,7 +18267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>446</v>
       </c>
@@ -18366,7 +18290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>447</v>
       </c>
@@ -18389,7 +18313,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>448</v>
       </c>
@@ -18412,7 +18336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>449</v>
       </c>
@@ -18435,7 +18359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>450</v>
       </c>
@@ -18458,7 +18382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>451</v>
       </c>
@@ -18481,7 +18405,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>452</v>
       </c>
@@ -18504,7 +18428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>453</v>
       </c>
@@ -18527,7 +18451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>454</v>
       </c>
@@ -18550,7 +18474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>455</v>
       </c>
@@ -18573,7 +18497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>456</v>
       </c>
@@ -18596,7 +18520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>457</v>
       </c>
@@ -18619,7 +18543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>458</v>
       </c>
@@ -18642,7 +18566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>459</v>
       </c>
@@ -18665,7 +18589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>460</v>
       </c>
@@ -18688,7 +18612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>461</v>
       </c>
@@ -18711,7 +18635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>462</v>
       </c>
@@ -18734,7 +18658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>463</v>
       </c>
@@ -18757,7 +18681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>464</v>
       </c>
@@ -18780,7 +18704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>465</v>
       </c>
@@ -18803,7 +18727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>466</v>
       </c>
@@ -18826,7 +18750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>467</v>
       </c>
@@ -18849,7 +18773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>468</v>
       </c>
@@ -18872,7 +18796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>469</v>
       </c>
@@ -18895,7 +18819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>470</v>
       </c>
@@ -18918,7 +18842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>471</v>
       </c>
@@ -18941,7 +18865,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>472</v>
       </c>
@@ -18964,7 +18888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>473</v>
       </c>
@@ -18987,7 +18911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>474</v>
       </c>
@@ -19010,7 +18934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>475</v>
       </c>
@@ -19033,7 +18957,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>476</v>
       </c>
@@ -19056,7 +18980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>477</v>
       </c>
@@ -19079,7 +19003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>478</v>
       </c>
@@ -19102,7 +19026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>479</v>
       </c>
@@ -19125,7 +19049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>480</v>
       </c>
@@ -19148,7 +19072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>481</v>
       </c>
@@ -19171,7 +19095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>482</v>
       </c>
@@ -19194,7 +19118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>483</v>
       </c>
@@ -19217,7 +19141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>484</v>
       </c>
@@ -19240,7 +19164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>485</v>
       </c>
@@ -19263,7 +19187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>486</v>
       </c>
@@ -19286,7 +19210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>487</v>
       </c>
@@ -19309,7 +19233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>488</v>
       </c>
@@ -19332,7 +19256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>489</v>
       </c>
@@ -19355,7 +19279,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>490</v>
       </c>
@@ -19378,7 +19302,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>491</v>
       </c>
@@ -19401,7 +19325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>492</v>
       </c>
@@ -19424,7 +19348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>493</v>
       </c>
@@ -19447,7 +19371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>494</v>
       </c>
@@ -19470,7 +19394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>495</v>
       </c>
@@ -19493,7 +19417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>496</v>
       </c>
@@ -19516,7 +19440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>497</v>
       </c>
@@ -19539,7 +19463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>498</v>
       </c>
@@ -19562,7 +19486,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>499</v>
       </c>
@@ -19585,7 +19509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>500</v>
       </c>
@@ -19608,7 +19532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>501</v>
       </c>
@@ -19631,7 +19555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>502</v>
       </c>
@@ -19654,7 +19578,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>503</v>
       </c>
@@ -19677,7 +19601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>504</v>
       </c>
@@ -19700,7 +19624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>505</v>
       </c>
@@ -19723,7 +19647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>506</v>
       </c>
@@ -19746,7 +19670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>507</v>
       </c>
@@ -19769,7 +19693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>508</v>
       </c>
@@ -19792,7 +19716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>509</v>
       </c>
@@ -19815,7 +19739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>510</v>
       </c>
@@ -19838,7 +19762,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>511</v>
       </c>
@@ -19861,7 +19785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>512</v>
       </c>
@@ -19884,7 +19808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>513</v>
       </c>
@@ -19907,7 +19831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>514</v>
       </c>
@@ -19930,7 +19854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>515</v>
       </c>
@@ -19953,7 +19877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>516</v>
       </c>
@@ -19976,7 +19900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>517</v>
       </c>
@@ -19999,7 +19923,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>518</v>
       </c>
@@ -20022,7 +19946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>519</v>
       </c>
@@ -20045,7 +19969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>520</v>
       </c>
@@ -20068,7 +19992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>521</v>
       </c>
@@ -20091,7 +20015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>522</v>
       </c>
@@ -20114,7 +20038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>523</v>
       </c>
@@ -20137,7 +20061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>524</v>
       </c>
@@ -20175,14 +20099,14 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -20193,7 +20117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -20204,7 +20128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -20215,7 +20139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>327</v>
       </c>
@@ -20226,7 +20150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>328</v>
       </c>
@@ -20237,7 +20161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>329</v>
       </c>
@@ -20248,7 +20172,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>330</v>
       </c>
@@ -20259,7 +20183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>331</v>
       </c>
@@ -20270,7 +20194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>332</v>
       </c>
@@ -20281,7 +20205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>333</v>
       </c>
@@ -20292,7 +20216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>334</v>
       </c>
@@ -20303,7 +20227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>335</v>
       </c>
@@ -20314,7 +20238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>336</v>
       </c>
@@ -20325,7 +20249,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>337</v>
       </c>
@@ -20336,7 +20260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>338</v>
       </c>
@@ -20347,7 +20271,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>339</v>
       </c>
@@ -20358,7 +20282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>340</v>
       </c>
@@ -20369,7 +20293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>341</v>
       </c>
@@ -20380,7 +20304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>342</v>
       </c>
@@ -20391,7 +20315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -20402,7 +20326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>344</v>
       </c>
@@ -20413,7 +20337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>345</v>
       </c>
@@ -20424,7 +20348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>346</v>
       </c>
@@ -20435,7 +20359,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>347</v>
       </c>
@@ -20446,7 +20370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>348</v>
       </c>
@@ -20457,7 +20381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>349</v>
       </c>
@@ -20468,7 +20392,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>350</v>
       </c>
@@ -20479,7 +20403,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>351</v>
       </c>
@@ -20490,7 +20414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>352</v>
       </c>
@@ -20501,7 +20425,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>353</v>
       </c>
@@ -20512,7 +20436,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>354</v>
       </c>
@@ -20523,7 +20447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>355</v>
       </c>
@@ -20534,7 +20458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>356</v>
       </c>
@@ -20545,7 +20469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>357</v>
       </c>
@@ -20556,7 +20480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>358</v>
       </c>
@@ -20567,7 +20491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>359</v>
       </c>
@@ -20578,7 +20502,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>360</v>
       </c>
@@ -20589,7 +20513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>361</v>
       </c>
@@ -20600,7 +20524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>362</v>
       </c>
@@ -20611,7 +20535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>363</v>
       </c>
@@ -20622,7 +20546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>364</v>
       </c>
@@ -20633,7 +20557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>365</v>
       </c>
@@ -20644,7 +20568,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>366</v>
       </c>
@@ -20655,7 +20579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>367</v>
       </c>
@@ -20666,7 +20590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -20677,7 +20601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -20688,7 +20612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>370</v>
       </c>
@@ -20699,7 +20623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>371</v>
       </c>
@@ -20710,7 +20634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>372</v>
       </c>
@@ -20721,7 +20645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>373</v>
       </c>
@@ -20732,7 +20656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>374</v>
       </c>
@@ -20743,7 +20667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -20754,7 +20678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>376</v>
       </c>
@@ -20765,7 +20689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>377</v>
       </c>
@@ -20776,7 +20700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>378</v>
       </c>
@@ -20787,7 +20711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>379</v>
       </c>
@@ -20798,7 +20722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>380</v>
       </c>
@@ -20809,7 +20733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>381</v>
       </c>
@@ -20820,7 +20744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>382</v>
       </c>
@@ -20831,7 +20755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>383</v>
       </c>
@@ -20842,7 +20766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>384</v>
       </c>
@@ -20853,7 +20777,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>385</v>
       </c>
@@ -20864,7 +20788,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>386</v>
       </c>
@@ -20875,7 +20799,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -20886,7 +20810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>388</v>
       </c>
@@ -20897,7 +20821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -20908,7 +20832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>390</v>
       </c>
@@ -20919,7 +20843,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>391</v>
       </c>
@@ -20930,7 +20854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -20941,7 +20865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>393</v>
       </c>
@@ -20952,7 +20876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>394</v>
       </c>
@@ -20963,7 +20887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>395</v>
       </c>
@@ -20974,7 +20898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>396</v>
       </c>
@@ -20985,7 +20909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>397</v>
       </c>
@@ -20996,7 +20920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>398</v>
       </c>
@@ -21007,7 +20931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>399</v>
       </c>
@@ -21018,7 +20942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>400</v>
       </c>
@@ -21029,7 +20953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>401</v>
       </c>
@@ -21040,7 +20964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>402</v>
       </c>
@@ -21051,7 +20975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>403</v>
       </c>
@@ -21062,7 +20986,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>404</v>
       </c>
@@ -21073,7 +20997,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>405</v>
       </c>
@@ -21084,7 +21008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>406</v>
       </c>
@@ -21095,7 +21019,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>407</v>
       </c>
@@ -21106,7 +21030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>408</v>
       </c>
@@ -21117,7 +21041,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>409</v>
       </c>
@@ -21128,7 +21052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -21139,7 +21063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>411</v>
       </c>
@@ -21150,7 +21074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -21161,7 +21085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>413</v>
       </c>
@@ -21172,7 +21096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>414</v>
       </c>
@@ -21183,7 +21107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>415</v>
       </c>
@@ -21194,7 +21118,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>416</v>
       </c>
@@ -21205,7 +21129,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>417</v>
       </c>
@@ -21216,7 +21140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>418</v>
       </c>
@@ -21227,7 +21151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>419</v>
       </c>
@@ -21238,7 +21162,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>420</v>
       </c>
@@ -21249,7 +21173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>421</v>
       </c>
@@ -21260,7 +21184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>422</v>
       </c>
@@ -21271,7 +21195,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>423</v>
       </c>
@@ -21282,7 +21206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>424</v>
       </c>
@@ -21293,7 +21217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>425</v>
       </c>
@@ -21304,7 +21228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>426</v>
       </c>
@@ -21315,7 +21239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>427</v>
       </c>
@@ -21326,7 +21250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>428</v>
       </c>
@@ -21337,7 +21261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>429</v>
       </c>
@@ -21348,7 +21272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>430</v>
       </c>
@@ -21359,7 +21283,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>431</v>
       </c>
@@ -21370,7 +21294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>432</v>
       </c>
@@ -21381,7 +21305,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>433</v>
       </c>
@@ -21392,7 +21316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>434</v>
       </c>
@@ -21403,7 +21327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>435</v>
       </c>
@@ -21414,7 +21338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -21425,7 +21349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>437</v>
       </c>
@@ -21436,7 +21360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>438</v>
       </c>
@@ -21447,7 +21371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>439</v>
       </c>
@@ -21458,7 +21382,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>440</v>
       </c>
@@ -21469,7 +21393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>441</v>
       </c>
@@ -21480,7 +21404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>442</v>
       </c>
@@ -21491,7 +21415,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>443</v>
       </c>
@@ -21502,7 +21426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>444</v>
       </c>
@@ -21513,7 +21437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>445</v>
       </c>
@@ -21524,7 +21448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>446</v>
       </c>
@@ -21535,7 +21459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>447</v>
       </c>
@@ -21546,7 +21470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>448</v>
       </c>
@@ -21557,7 +21481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>449</v>
       </c>
@@ -21568,7 +21492,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>450</v>
       </c>
@@ -21579,7 +21503,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>451</v>
       </c>
@@ -21590,7 +21514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>452</v>
       </c>
@@ -21601,7 +21525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>453</v>
       </c>
@@ -21612,7 +21536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>454</v>
       </c>
@@ -21623,7 +21547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>455</v>
       </c>
@@ -21634,7 +21558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>456</v>
       </c>
@@ -21645,7 +21569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>457</v>
       </c>
@@ -21656,7 +21580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>458</v>
       </c>
@@ -21667,7 +21591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>459</v>
       </c>
@@ -21678,7 +21602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>460</v>
       </c>
@@ -21689,7 +21613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>461</v>
       </c>
@@ -21700,7 +21624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>462</v>
       </c>
@@ -21711,7 +21635,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>463</v>
       </c>
@@ -21722,7 +21646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>464</v>
       </c>
@@ -21733,7 +21657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>465</v>
       </c>
@@ -21744,7 +21668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>466</v>
       </c>
@@ -21755,7 +21679,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>467</v>
       </c>
@@ -21766,7 +21690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>468</v>
       </c>
@@ -21777,7 +21701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>469</v>
       </c>
@@ -21788,7 +21712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>470</v>
       </c>
@@ -21799,7 +21723,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>471</v>
       </c>
@@ -21810,7 +21734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>472</v>
       </c>
@@ -21821,7 +21745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>473</v>
       </c>
@@ -21832,7 +21756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>474</v>
       </c>
@@ -21843,7 +21767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>475</v>
       </c>
@@ -21854,7 +21778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>476</v>
       </c>
@@ -21865,7 +21789,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>477</v>
       </c>
@@ -21876,7 +21800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>478</v>
       </c>
@@ -21887,7 +21811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>479</v>
       </c>
@@ -21898,7 +21822,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>480</v>
       </c>
@@ -21909,7 +21833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>481</v>
       </c>
@@ -21920,7 +21844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>482</v>
       </c>
@@ -21931,7 +21855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>483</v>
       </c>
@@ -21942,7 +21866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>484</v>
       </c>
@@ -21953,7 +21877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>485</v>
       </c>
@@ -21964,7 +21888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>486</v>
       </c>
@@ -21975,7 +21899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>487</v>
       </c>
@@ -21986,7 +21910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>488</v>
       </c>
@@ -21997,7 +21921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>489</v>
       </c>
@@ -22008,7 +21932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>490</v>
       </c>
@@ -22019,7 +21943,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>491</v>
       </c>
@@ -22030,7 +21954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>492</v>
       </c>
@@ -22041,7 +21965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>493</v>
       </c>
@@ -22052,7 +21976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>494</v>
       </c>
@@ -22063,7 +21987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>495</v>
       </c>
@@ -22074,7 +21998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>496</v>
       </c>
@@ -22085,7 +22009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>497</v>
       </c>
@@ -22096,7 +22020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>498</v>
       </c>
@@ -22107,7 +22031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>499</v>
       </c>
@@ -22118,7 +22042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>500</v>
       </c>
@@ -22129,7 +22053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>501</v>
       </c>
@@ -22140,7 +22064,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>502</v>
       </c>
@@ -22151,7 +22075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>503</v>
       </c>
@@ -22162,7 +22086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>504</v>
       </c>
@@ -22173,7 +22097,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>505</v>
       </c>
@@ -22184,7 +22108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>506</v>
       </c>
@@ -22195,7 +22119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>507</v>
       </c>
@@ -22206,7 +22130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>508</v>
       </c>
@@ -22217,7 +22141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>509</v>
       </c>
@@ -22228,7 +22152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>510</v>
       </c>
@@ -22239,7 +22163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>511</v>
       </c>
@@ -22250,7 +22174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>512</v>
       </c>
@@ -22261,7 +22185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>513</v>
       </c>
@@ -22272,7 +22196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>514</v>
       </c>
@@ -22283,7 +22207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>515</v>
       </c>
@@ -22294,7 +22218,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>516</v>
       </c>
@@ -22305,7 +22229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>517</v>
       </c>
@@ -22316,7 +22240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>518</v>
       </c>
@@ -22327,7 +22251,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>519</v>
       </c>
@@ -22338,7 +22262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>520</v>
       </c>
@@ -22349,7 +22273,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>521</v>
       </c>
@@ -22360,7 +22284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>522</v>
       </c>
@@ -22371,7 +22295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>523</v>
       </c>
@@ -22382,7 +22306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>524</v>
       </c>
@@ -22407,18 +22331,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <f>COUNTA(NOTICE!D2:D201)</f>
         <v>200</v>
       </c>
